--- a/src/assets/template/template.xlsx
+++ b/src/assets/template/template.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivam.sharma01\Desktop\mixed folder\Project\FreshVisitor\src\assets\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>SNO</t>
   </si>
@@ -42,15 +38,70 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>VISITOR_TYPE</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Interviewee</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>New Joinee</t>
+  </si>
+  <si>
+    <t>Conference Attendee</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>Visitor Type</t>
+  </si>
+  <si>
+    <t>Unique Id Type</t>
+  </si>
+  <si>
+    <t>Supported Values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,8 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -174,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -351,21 +404,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
@@ -374,7 +427,7 @@
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,10 +445,93 @@
       </c>
       <c r="F1" t="s">
         <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/assets/template/template.xlsx
+++ b/src/assets/template/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SNO</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Supported Values</t>
+  </si>
+  <si>
+    <t>Adharcard</t>
+  </si>
+  <si>
+    <t>Pancard</t>
+  </si>
+  <si>
+    <t>Passport</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,76 +467,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21">
+    <row r="1" spans="1:2" ht="21">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/template/template.xlsx
+++ b/src/assets/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>SNO</t>
   </si>
@@ -43,9 +43,6 @@
     <t>VISITOR_TYPE</t>
   </si>
   <si>
-    <t>Family</t>
-  </si>
-  <si>
     <t>Interviewee</t>
   </si>
   <si>
@@ -79,20 +76,110 @@
     <t>Supported Values</t>
   </si>
   <si>
-    <t>Adharcard</t>
-  </si>
-  <si>
-    <t>Pancard</t>
-  </si>
-  <si>
     <t>Passport</t>
+  </si>
+  <si>
+    <t>VISIT_LOCATION</t>
+  </si>
+  <si>
+    <t>TIME_IN</t>
+  </si>
+  <si>
+    <t>TIME_OUT</t>
+  </si>
+  <si>
+    <t>DATE_IN</t>
+  </si>
+  <si>
+    <t>DATE_OUT</t>
+  </si>
+  <si>
+    <t>Aadhar</t>
+  </si>
+  <si>
+    <t>Driving License</t>
+  </si>
+  <si>
+    <t>Voter Id</t>
+  </si>
+  <si>
+    <t>DD-MM-YYYY</t>
+  </si>
+  <si>
+    <t>DATE_IN/DATE_OUT</t>
+  </si>
+  <si>
+    <t>TIME_IN/TIME_OUT</t>
+  </si>
+  <si>
+    <t>HH:MM</t>
+  </si>
+  <si>
+    <t>Shivam Sharma</t>
+  </si>
+  <si>
+    <t>shivam@gmail.com</t>
+  </si>
+  <si>
+    <t>visit location</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Hyderabad STP: Pearl Park</t>
+  </si>
+  <si>
+    <t>Hyderabad SEZ: Prakriti Park</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>Mangalore SEZ</t>
+  </si>
+  <si>
+    <t>Mohali</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t>Sample Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +203,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,15 +228,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,22 +532,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,6 +574,24 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -467,94 +602,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>21</v>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="J21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>1231231232</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>1231243</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="4">
+        <v>43539</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="K38" s="4">
+        <v>43539</v>
+      </c>
+      <c r="L38" s="4">
+        <v>43539</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C38" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/assets/template/template.xlsx
+++ b/src/assets/template/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>SNO</t>
   </si>
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,7 +553,7 @@
     <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,11 +588,36 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="C2" s="8"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="8"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -602,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -774,12 +799,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>1</v>
       </c>
@@ -813,10 +838,7 @@
       <c r="K38" s="4">
         <v>43539</v>
       </c>
-      <c r="L38" s="4">
-        <v>43539</v>
-      </c>
-      <c r="M38" s="3">
+      <c r="L38" s="3">
         <v>0.5</v>
       </c>
     </row>

--- a/src/assets/template/template.xlsx
+++ b/src/assets/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,126 +638,127 @@
     <col min="1" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="E11" t="s">
+    <row r="11" spans="1:6">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="E12" t="s">
+    <row r="12" spans="1:6">
+      <c r="F12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="E13" t="s">
+    <row r="13" spans="1:6">
+      <c r="F13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="E14" t="s">
+    <row r="14" spans="1:6">
+      <c r="F14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="E15" t="s">
+    <row r="15" spans="1:6">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="E16" t="s">
+    <row r="16" spans="1:6">
+      <c r="F16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -800,7 +801,7 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
     </row>

--- a/src/assets/template/template.xlsx
+++ b/src/assets/template/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>SNO</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Sample Data</t>
+  </si>
+  <si>
+    <t>24hr format</t>
+  </si>
+  <si>
+    <t>2pm is 14:00</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -627,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,17 +758,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:14">
       <c r="F17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:14">
       <c r="F18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -779,23 +785,29 @@
       <c r="K21" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:14">
       <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:14">
       <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:14">
       <c r="B25" t="s">
         <v>26</v>
       </c>

--- a/src/assets/template/template.xlsx
+++ b/src/assets/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,18 +82,6 @@
     <t>VISIT_LOCATION</t>
   </si>
   <si>
-    <t>TIME_IN</t>
-  </si>
-  <si>
-    <t>TIME_OUT</t>
-  </si>
-  <si>
-    <t>DATE_IN</t>
-  </si>
-  <si>
-    <t>DATE_OUT</t>
-  </si>
-  <si>
     <t>Aadhar</t>
   </si>
   <si>
@@ -179,6 +167,18 @@
   </si>
   <si>
     <t>2pm is 14:00</t>
+  </si>
+  <si>
+    <t>ACCOMODATION</t>
+  </si>
+  <si>
+    <t>Accomodation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -557,6 +557,7 @@
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -585,16 +586,7 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -635,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -669,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -677,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -685,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -693,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -701,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -709,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -717,7 +709,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -725,47 +717,47 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="F11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="F12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="F13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="F14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="F15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="F16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="F17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="F18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -773,33 +765,33 @@
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F21" s="4"/>
       <c r="J21" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -809,12 +801,27 @@
     </row>
     <row r="25" spans="1:14">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -822,16 +829,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>1231231232</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F38">
         <v>1231243</v>
@@ -840,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I38" s="4">
         <v>43539</v>
